--- a/biology/Zoologie/Saïda_Hossini/Saïda_Hossini.xlsx
+++ b/biology/Zoologie/Saïda_Hossini/Saïda_Hossini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sa%C3%AFda_Hossini</t>
+          <t>Saïda_Hossini</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saïda Hossini, née en 1950 est une paléontologue marocaine, spécialiste des grenouilles de Pléistocène.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sa%C3%AFda_Hossini</t>
+          <t>Saïda_Hossini</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,86 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hossini a fait ses études de doctorat à Paris, où elle a étudié les espèces d'anoures de la fin d'oligocène et du miocène en France[1].
-Carrière
-Saïda Hossini enseigne à l'université Moulay Ismail, faculté des sciences de Meknès. Son travail au Maroc comprend l'examen du dépôt des grottes et a examiné les restes d'amphibiens du site de la carrière Thomas, près de Casablanca[2],[3].
-Elle a identifié pour la première fois en Afrique la présence du genre Baleaphryne sur le site du Jebel Irhoud (carrière "Ocre") au Maroc[4].
-Distinctions honorifiques
-En 2010, le programme de recherche archéologique sur les premiers peuplements du littoral atlantique du Maroc, auquel elle participait avec d'autres chercheurs marocains et français, a remporté le premier Prix Clio 2010 de l'archéologie, décerné chaque année à Paris[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hossini a fait ses études de doctorat à Paris, où elle a étudié les espèces d'anoures de la fin d'oligocène et du miocène en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saïda_Hossini</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sa%C3%AFda_Hossini</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saïda Hossini enseigne à l'université Moulay Ismail, faculté des sciences de Meknès. Son travail au Maroc comprend l'examen du dépôt des grottes et a examiné les restes d'amphibiens du site de la carrière Thomas, près de Casablanca,.
+Elle a identifié pour la première fois en Afrique la présence du genre Baleaphryne sur le site du Jebel Irhoud (carrière "Ocre") au Maroc.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saïda_Hossini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sa%C3%AFda_Hossini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Distinctions honorifiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2010, le programme de recherche archéologique sur les premiers peuplements du littoral atlantique du Maroc, auquel elle participait avec d'autres chercheurs marocains et français, a remporté le premier Prix Clio 2010 de l'archéologie, décerné chaque année à Paris.
 </t>
         </is>
       </c>
